--- a/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.89</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>74.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>72.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>72.38</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>82.93</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>88.53</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
@@ -884,12 +884,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688051-佳华科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -868,64 +804,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>